--- a/doc/設計文件/權限設計.xlsx
+++ b/doc/設計文件/權限設計.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="120" windowWidth="12504" windowHeight="3024" activeTab="4"/>
+    <workbookView xWindow="192" yWindow="240" windowWidth="12504" windowHeight="2904" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="Sql" sheetId="2" r:id="rId2"/>
     <sheet name="宏興產生假資料用" sheetId="3" r:id="rId3"/>
     <sheet name="轉換bac_process_func_rf2" sheetId="4" r:id="rId4"/>
-    <sheet name="改變func_id名稱" sheetId="5" r:id="rId5"/>
+    <sheet name="func_id名稱" sheetId="5" r:id="rId5"/>
+    <sheet name="OptionID" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="240">
   <si>
     <t>角色代號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,22 +85,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系統別對照檔S99_SYSTEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系統代號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作業別對照檔S99_PROCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模組別對照檔S99_MODEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模組代號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用者對照檔S99_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目前有的資料權限層級(上層包含下層,例如設定館別,則該館下全部廳別都有權限)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +178,6 @@
   </si>
   <si>
     <t>模組代號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色對照檔BAC_ROLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -226,20 +207,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色權限對照檔BAC_ROLE_QUICKMENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MENU上的系統代號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select t.comp_cod,t.hotel_cod,t.subsys_id,t.pro_id,b.pro_name,t.sys_id,t.ins_usr,t.upd_usr, t.rowid from BAC_QUICKMENU t join s99_process b on t.pro_id = b.pro_id
 order by t.pro_id,hotel_cod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授權快選對照檔BAC_QUICKMENU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -308,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色權限對照檔BAC_ROLE_FUNCTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上一層功能代號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,18 +297,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作業功能別對照檔BAC_PROCESS_FUNC_RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作業的功能button</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客戶授權</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全部功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,18 +314,6 @@
   </si>
   <si>
     <t>使用者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(尚未決定)角色使用者層級對照檔BAC_ROLE_DATA_SCOPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(尚未決定)角色使用功能範圍對照檔BAC_ROLE_FUNC_SCOPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授權子系統對照檔BAC_SUBSYSMENU_RF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -388,21 +337,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into bac_role_function  
-select * from (select distinct b.role_comp_cod, b.role_id, a.comp_cod func_comp_cod, a.hotel_cod func_hotel_cod, a.pre_id, a.current_id, a.id_typ, a.level_nos, a.sort_cod,sysdate ins_dat, n'cio' ins_usr, sysdate upd_dat, n'cio' upd_usr, b.role_athena_id, a.athena_id
-              from bac_processmenu a inner join bac_role b on 1 = 1
-              where pre_id like 'HFD%' or current_id like 'HFD%') c
-  where not exists (select 1 from bac_role_function d where c.role_comp_cod = d.role_comp_cod and c.role_id = d.role_id and 
-    c.func_comp_cod = d.func_comp_cod and c.func_hotel_cod = d.func_hotel_cod and
-    c.pre_id = d.pre_id and c.current_id = d.current_id )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>範例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授權功能對照檔BAC_PROCESSMENU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -699,14 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授權內文語言對照檔BAC_TEXT_LANG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授權UI語言對照檔BAC_UI_LANG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>語系 zh_TW:台灣 zh_CN:簡中 en:英文 ja:日文 ko:韓文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -728,10 +655,6 @@
   </si>
   <si>
     <t>1.bac_role_function與bac_user_function欄位sort_cod必須與bac_processmenu同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者特別/禁止權限對照檔BAC_USER_FUNCTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -942,6 +865,378 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>insert into bac_process_func_rf2
+select a.pro_id,a.func_id,b.func_nam,a.ins_dat,a.ins_usr,a.upd_dat,a.upd_usr from bac_process_func_rf a
+left join bac_function_rf b on a.func_id = b.func_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table rf2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop table bac_process_func_rf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rename into bac_process_func_rf2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改PK name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table LANG_BAC_PROCESS_FUNC_RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into lang_bac_process_func_rf
+select a.pro_id,a.func_id,nvl(b.field_name,'func_nam'),nvl(b.locale,'en'),b.words,b.clob_words from bac_process_func_rf a
+left join lang_bac_function_rf b on a.func_id = b.func_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into lang_bac_process_func_rf
+select a.pro_id,a.func_id,'func_nam','zh_TW',b.func_nam,'' from bac_process_func_rf a
+left join bac_function_rf b on a.func_id = b.func_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原本func_id名稱存在BAC_FUNCTION_RF,今改在BAC_PROCESS_FUNC_RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select func_nam from BAC_FUNCTION_RF t where func_id = ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原本=&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的=&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select words from lang_bac_function_rf t where field_name='func_nam' and func_id = ? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select words from lang_bac_process_func_rf t where  field_name='func_nam' and pro_id = ? and func_id = ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select func_nam from BAC_PROCESS_FUNC_RF t where pro_id = ? and func_id = ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into bac_role_function  
+select * from (select distinct b.role_athena_id, b.role_comp_cod, b.role_id, a.athena_id, a.comp_cod func_comp_cod, a.hotel_cod func_hotel_cod, a.pre_id, a.current_id, a.id_typ, a.level_nos, a.sort_cod,sysdate ins_dat, n'a96009' ins_usr, sysdate upd_dat, n'a96009' upd_usr
+              from bac_processmenu a inner join bac_role b on 1 = 1
+              where pre_id like 'PMS%' or current_id like 'PMS%') c
+  where not exists (select 1 from bac_role_function d where c.role_comp_cod = d.role_comp_cod and c.role_id = d.role_id and 
+    c.func_comp_cod = d.func_comp_cod and c.func_hotel_cod = d.func_hotel_cod and
+    c.pre_id = d.pre_id and c.current_id = d.current_id )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權數</t>
+  </si>
+  <si>
+    <t>方便客服給授權</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統別設定S99_SYSTEM</t>
+  </si>
+  <si>
+    <t>授權子系統設定BAC_SUBSYSMENU_RF</t>
+  </si>
+  <si>
+    <t>模組別設定S99_MODEL</t>
+  </si>
+  <si>
+    <t>作業別設定S99_PROCESS</t>
+  </si>
+  <si>
+    <t>作業功能別設定BAC_PROCESS_FUNC_RF</t>
+  </si>
+  <si>
+    <t>功能別設定BAC_FUNCTION_RF(17/10/2不用了,改到BAC_PROCRSS_FUNC_RF)</t>
+  </si>
+  <si>
+    <t>授權功能設定BAC_PROCESSMENU</t>
+  </si>
+  <si>
+    <t>授權快選設定BAC_QUICKMENU</t>
+  </si>
+  <si>
+    <t>授權UI語言設定BAC_UI_LANG</t>
+  </si>
+  <si>
+    <t>授權內文語言設定BAC_TEXT_LANG</t>
+  </si>
+  <si>
+    <t>授權數設定BAC_LICENSE</t>
+  </si>
+  <si>
+    <t>角色設定BAC_ROLE</t>
+  </si>
+  <si>
+    <t>角色權限設定BAC_ROLE_FUNCTION</t>
+  </si>
+  <si>
+    <t>角色權限設定BAC_ROLE_QUICKMENU</t>
+  </si>
+  <si>
+    <t>使用者設定S99_USER</t>
+  </si>
+  <si>
+    <t>使用者特別/禁止權限設定BAC_USER_FUNCTION</t>
+  </si>
+  <si>
+    <t>(尚未決定)角色使用者層級設定BAC_ROLE_DATA_SCOPE</t>
+  </si>
+  <si>
+    <t>(尚未決定)角色使用功能範圍設定BAC_ROLE_FUNC_SCOPE</t>
+  </si>
+  <si>
+    <t>授權樣本設定BAC_TEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多語s99_system
+insert into lang_s99_system select t.sys_id,'sys_name','en',nvl(sys_ename,'(英文)' || sys_name),'' from s99_system t where sys_id like 'PMS%' and sys_id not in (select sys_id from lang_s99_system where locale = 'en');
+insert into lang_s99_system select t.sys_id,'sys_name','ja','(日文)' || sys_name,'' from s99_system t where sys_id like 'PMS%' and sys_id not in (select sys_id from lang_s99_system where locale = 'ja');
+insert into lang_s99_system select t.sys_id,'sys_name','zh_TW',sys_name,'' from s99_system t where sys_id like 'PMS%' and sys_id not in (select sys_id from lang_s99_system where locale = 'zh_TW');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多語bac_subsysmenu_rf
+insert into lang_bac_subsysmenu_rf select t.subsys_id,'subsys_nam','en','(英文)' || subsys_nam,'' from bac_subsysmenu_rf t where subsys_id like 'PMS%' and subsys_id not in (select subsys_id from lang_bac_subsysmenu_rf where locale = 'en');
+insert into lang_bac_subsysmenu_rf select t.subsys_id,'subsys_nam','ja','(日文)' || subsys_nam,'' from bac_subsysmenu_rf t where subsys_id like 'PMS%' and subsys_id not in (select subsys_id from lang_bac_subsysmenu_rf where locale = 'ja');
+insert into lang_bac_subsysmenu_rf select t.subsys_id,'subsys_nam','zh_TW',subsys_nam,'' from bac_subsysmenu_rf t where subsys_id like 'PMS%' and subsys_id not in (select subsys_id from lang_bac_subsysmenu_rf where locale = 'zh_TW');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>層級</t>
+  </si>
+  <si>
+    <t>代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱=&gt;PMS Lite、PMS  Business、PMS Lite A版、PMS Lite B版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本(Lite, Business, Enterprise)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權Option設定明細</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權Option設定主檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B版Rate code</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMS0810230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1040:Dep. Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特別Rate code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1210:Hourly rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMS0810230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1050:設定Base Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1060:加人加價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1180:限制設定tabpage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1190:促銷設定tabpage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1220:Monthly rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMS_RATECODE_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMS_RATECODE_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMS_RATECODE_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶購買授權</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啟用Y/N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍框(function、tabpage)：依func_id決定版本</t>
+  </si>
+  <si>
+    <t>PMS_SVC_ITEM</t>
+  </si>
+  <si>
+    <t>服務項目</t>
+  </si>
+  <si>
+    <t>Business版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lite版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅框(下拉、欄位、畫面排版)：依OptionID決定版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt;控制下拉、欄位、畫面排版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那個版本為標準(Lite, Business, Enterprise)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt;按客戶購買的版本,放給客戶,例如客戶買Business版,這個Option就給客戶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本(Lite, Business, Enterprise)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權Option設定主檔BAC_OPTION_MN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權Option設定明細BAC_OPTION_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權Option設定主檔BAC_OPTION_RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權Option設定明細BAC_OPTION_RF_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶購買OptionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啟用Y/N 用Option授權功能獲得授權為Y 用購買版本獲得授權為N,再由另一隻程式開啟</t>
+  </si>
+  <si>
+    <t>PMS_SVC_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMS0110041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMS0810230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>多語s99_process
 insert into lang_s99_process select t.pro_id,'pro_name','en',nvl(pro_ename,'(英文)' || pro_name),'' from S99_process t where pro_id like 'PMS%' and pro_id not in (select pro_id from lang_s99_process where locale = 'en');
 insert into lang_s99_process select t.pro_id,'pro_name','ja','(日文)' || pro_name,'' from S99_process t where pro_id like 'PMS%' and pro_id not in (select pro_id from lang_s99_process where locale = 'ja');
@@ -949,84 +1244,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into bac_process_func_rf2
-select a.pro_id,a.func_id,b.func_nam,a.ins_dat,a.ins_usr,a.upd_dat,a.upd_usr from bac_process_func_rf a
-left join bac_function_rf b on a.func_id = b.func_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table rf2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop table bac_process_func_rf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rename into bac_process_func_rf2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改PK name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table LANG_BAC_PROCESS_FUNC_RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into lang_bac_process_func_rf
-select a.pro_id,a.func_id,nvl(b.field_name,'func_nam'),nvl(b.locale,'en'),b.words,b.clob_words from bac_process_func_rf a
-left join lang_bac_function_rf b on a.func_id = b.func_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into lang_bac_process_func_rf
-select a.pro_id,a.func_id,'func_nam','zh_TW',b.func_nam,'' from bac_process_func_rf a
-left join bac_function_rf b on a.func_id = b.func_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原本func_id名稱存在BAC_FUNCTION_RF,今改在BAC_PROCESS_FUNC_RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select func_nam from BAC_FUNCTION_RF t where func_id = ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select func_nam from BAC_PROCESS_FUNC_RF t where pro_id = ? and func_id = ?</t>
-  </si>
-  <si>
-    <t>原本=&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新的=&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能代號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能別對照檔BAC_FUNCTION_RF(17/10/2不用了,改到BAC_PROCRSS_FUNC_RF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">select words from lang_bac_function_rf t where field_name='func_nam' and func_id = ? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select words from lang_bac_process_func_rf t where  field_name='func_nam' and pro_id = ? and func_id = ?</t>
+    <t>多語bac_process_func_rf
+insert into lang_bac_process_func_rf select t.pro_id,t.func_id,'func_nam','en','(英文)' || func_nam,'' from bac_process_func_rf t where pro_id like 'PMS%' and (pro_id,func_id) not in (select pro_id,func_id from lang_bac_process_func_rf where locale = 'en');
+insert into lang_bac_process_func_rf select t.pro_id,t.func_id,'func_nam','ja','(日文)' || func_nam,'' from bac_process_func_rf t where pro_id like 'PMS%' and (pro_id,func_id) not in (select pro_id,func_id from lang_bac_process_func_rf where locale = 'ja');
+insert into lang_bac_process_func_rf select t.pro_id,t.func_id,'func_nam','zh_TW',func_nam,'' from bac_process_func_rf t where pro_id like 'PMS%' and (pro_id,func_id) not in (select pro_id,func_id from lang_bac_process_func_rf where locale = 'zh_TW');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select t.*, t.rowid from bac_role_function t where id_typ='FUNCTION' and (func_athena_id,func_hotel_cod,pre_id) in (select athena_id,hotel_cod,pro_id from BAC_OPTION_DT where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y') ; </t>
+  </si>
+  <si>
+    <t>select * from BAC_OPTION_DT where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y' and id_typ = 'OPTION';</t>
+  </si>
+  <si>
+    <t>OptionID_RF</t>
+  </si>
+  <si>
+    <t>OptionID_RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以OPTION與Menu都會影響到畫面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啟用Y/N(用Option授權功能獲得授權為Y 用購買版本獲得授權為N,再由另一隻程式開啟)</t>
+  </si>
+  <si>
+    <t>PMS_RATECODE_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>『設定類別』下拉多
+DR:DAILY  
+PKG:PACKAGE
+則是Business就有,不是OptionID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,7 +1294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1144,6 +1404,85 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1171,7 +1510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1324,13 +1663,425 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1367,9 +2118,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1407,9 +2155,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1499,30 +2244,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1534,6 +2258,192 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,6 +2525,805 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>202351</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1" descr="https://lh5.googleusercontent.com/xHQRDBVMSp3UVmVCCcgHXe7LrrTXMBNlptusOSZ7d9nIRPdg47kv_NRTDy7uXCiHMLXD-hBfsSiA1I8EkEYKeBGlcvwVga4gRdXwPNAeIWiDFyhoY5MzCRQzPcyYmvoK9NDqCjEjSJU"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="266700" y="7139940"/>
+          <a:ext cx="5566831" cy="3406140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>512436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12931140" y="4686436"/>
+          <a:ext cx="4579620" cy="3359640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213359</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711080</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="213359" y="11071859"/>
+          <a:ext cx="6128901" cy="3284221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>442699</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>167979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="11018520"/>
+          <a:ext cx="8519899" cy="3909399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線單箭頭接點 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14569440" y="9075420"/>
+          <a:ext cx="510540" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線單箭頭接點 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16489680" y="9639300"/>
+          <a:ext cx="510540" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線單箭頭接點 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17365980" y="9136380"/>
+          <a:ext cx="22860" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線單箭頭接點 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13936980" y="9044940"/>
+          <a:ext cx="22860" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線單箭頭接點 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14020800" y="10325100"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線單箭頭接點 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15933420" y="10942320"/>
+          <a:ext cx="403860" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線單箭頭接點 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17251680" y="10294620"/>
+          <a:ext cx="15240" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線單箭頭接點 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15773400" y="10134600"/>
+          <a:ext cx="579120" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線單箭頭接點 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15194280" y="10439400"/>
+          <a:ext cx="617220" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2870200" y="9963150"/>
+          <a:ext cx="1212850" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PMS_SVC_ITEM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="8553450"/>
+          <a:ext cx="1327150" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PMS_RATECODE_B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="482600" y="8674100"/>
+          <a:ext cx="1327150" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PMS_RATECODE_B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1904,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG65"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="D27" sqref="D27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1919,148 +3628,200 @@
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" customWidth="1"/>
     <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="16.8" thickBot="1">
-      <c r="A1" s="29" t="s">
-        <v>75</v>
+      <c r="A1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="B2" s="6"/>
       <c r="D2" s="5" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="I2" s="6"/>
       <c r="K2" s="5" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="6"/>
       <c r="O2" s="5" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="6"/>
-      <c r="T2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="6"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
+      <c r="T2" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="59"/>
+      <c r="Y2" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="6"/>
+      <c r="AD2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="6"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="2"/>
       <c r="O3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="2"/>
-      <c r="T3" s="1" t="s">
-        <v>35</v>
+      <c r="T3" s="116" t="s">
+        <v>183</v>
       </c>
       <c r="U3" s="7"/>
-      <c r="V3" s="2"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="117" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="2"/>
+      <c r="AD3" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
+      <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:33" ht="16.8" thickBot="1">
-      <c r="A4" s="28" t="s">
-        <v>21</v>
+      <c r="A4" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="4"/>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2"/>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="2"/>
       <c r="O4" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="2"/>
-      <c r="T4" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="4"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="T4" s="116" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="4"/>
     </row>
     <row r="5" spans="1:33" ht="16.8" thickBot="1">
-      <c r="D5" s="28" t="s">
-        <v>50</v>
+      <c r="D5" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="4"/>
-      <c r="H5" s="28" t="s">
-        <v>22</v>
+      <c r="H5" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="K5" s="28" t="s">
-        <v>23</v>
+      <c r="K5" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="4"/>
-      <c r="O5" s="28" t="s">
-        <v>24</v>
+      <c r="O5" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="4"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="T5" s="116" t="s">
+        <v>180</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="2"/>
+      <c r="Y5" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" ht="16.8" thickBot="1">
+      <c r="T6" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="4"/>
+      <c r="Y6" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="4"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="16.8" thickBot="1">
-      <c r="A7" s="29" t="s">
-        <v>74</v>
+      <c r="A7" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
@@ -2068,947 +3829,1111 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="D8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="I8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="6"/>
-      <c r="P8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="6"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" s="10" t="s">
-        <v>1</v>
+      <c r="A9" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="D9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="2"/>
-      <c r="P9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="2"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="D10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="2"/>
-      <c r="I10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="2"/>
-      <c r="P10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="2"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="10" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="2"/>
-      <c r="I11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="2"/>
-      <c r="P11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="2"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" ht="16.8" thickBot="1">
+    <row r="12" spans="1:33">
       <c r="A12" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="4"/>
-      <c r="P12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="4"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="E13" s="11"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="16.8" thickBot="1">
-      <c r="A14" s="26" t="s">
-        <v>71</v>
+      <c r="A14" s="60" t="s">
+        <v>217</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33">
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
+    <row r="15" spans="1:33" ht="15.6" customHeight="1">
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="16.8" thickBot="1">
-      <c r="A16" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
+      <c r="A16" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>223</v>
+      </c>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-    </row>
-    <row r="17" spans="1:24">
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" s="5" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="B17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="O17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="1" t="s">
+      <c r="I17" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="59"/>
+      <c r="L17" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="6"/>
+      <c r="P17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="6"/>
+      <c r="W17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="6"/>
+      <c r="AD17" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="59"/>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
+      <c r="D18" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="13"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="O18" s="17" t="s">
+      <c r="G18" s="2"/>
+      <c r="I18" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="20"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="2"/>
+      <c r="P18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
+      <c r="U18" s="2"/>
+      <c r="W18" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="X18" s="7"/>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="2"/>
+      <c r="AD18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="12"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="D19" s="1" t="s">
-        <v>0</v>
+      <c r="D19" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="13"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="O19" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="20"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="L19" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="2"/>
+      <c r="P19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
+      <c r="U19" s="2"/>
+      <c r="W19" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="X19" s="7"/>
-    </row>
-    <row r="20" spans="1:24" ht="16.8" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="2"/>
+      <c r="AD19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="D20" s="10" t="s">
-        <v>56</v>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="12"/>
+    </row>
+    <row r="20" spans="1:33" ht="16.8" thickBot="1">
+      <c r="A20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="13"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="O20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="20"/>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="D21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="13"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="O21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="20"/>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="D22" s="10" t="s">
+      <c r="G20" s="2"/>
+      <c r="I20" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="L20" s="117" t="s">
+        <v>220</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="2"/>
+      <c r="P20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="2"/>
+      <c r="W20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="2"/>
+      <c r="AD20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="13"/>
+    </row>
+    <row r="21" spans="1:33" ht="16.8" thickBot="1">
+      <c r="A21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="4"/>
+      <c r="I21" s="116" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="L21" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="2"/>
+      <c r="P21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="4"/>
+      <c r="W21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="4"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="11"/>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="E22" s="11"/>
+      <c r="I22" s="116" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="L22" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="2"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="11"/>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="E23" s="11"/>
+      <c r="I23" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="L23" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="2"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="11"/>
+    </row>
+    <row r="24" spans="1:33" ht="16.8" thickBot="1">
+      <c r="A24" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="I24" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="2"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+    </row>
+    <row r="25" spans="1:33" ht="16.8" thickBot="1">
+      <c r="L25" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="4"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+    </row>
+    <row r="26" spans="1:33" ht="16.8" thickBot="1">
+      <c r="A26" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="D27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
+      <c r="J27" s="11"/>
+      <c r="O27" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="12"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="O28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="12"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="O29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+    </row>
+    <row r="30" spans="1:33" ht="16.8" thickBot="1">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="D30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="12"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="O30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="19"/>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="D31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="12"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="O31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="19"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="D32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="12"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="O32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="19"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="D33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="12"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="O33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="19"/>
+    </row>
+    <row r="34" spans="1:23" ht="16.8" thickBot="1">
+      <c r="D34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="12"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="O34" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="24"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="D35" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="12"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="17"/>
+    </row>
+    <row r="36" spans="1:23" ht="16.8" thickBot="1">
+      <c r="D36" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="13"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="11"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:23" ht="16.8" thickBot="1">
+      <c r="A38" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:23" ht="16.8" thickBot="1">
+      <c r="A43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:23" ht="16.8" thickBot="1">
+      <c r="A45" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="13"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="O22" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="20"/>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="D23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="13"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="O23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="20"/>
-    </row>
-    <row r="24" spans="1:24" ht="16.8" thickBot="1">
-      <c r="D24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="13"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="O24" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="25"/>
-    </row>
-    <row r="25" spans="1:24" ht="16.8" thickBot="1">
-      <c r="D25" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="14"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:24" ht="16.8" thickBot="1">
-      <c r="A27" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="5" t="s">
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="D46" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="6"/>
+      <c r="I46" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="D47" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="I47" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="D48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="I48" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="D49" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+    </row>
+    <row r="50" spans="1:21" ht="16.8" thickBot="1">
+      <c r="A50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="D50" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="D51" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="D52" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="D53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="D54" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="D55" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:21" ht="16.8" thickBot="1">
+      <c r="D56" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="D57" s="11"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:21" ht="16.8" thickBot="1"/>
+    <row r="59" spans="1:21">
+      <c r="A59" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:24">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:24" ht="16.8" thickBot="1">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:23" ht="16.8" thickBot="1">
-      <c r="A34" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="D35" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="6"/>
-      <c r="I35" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58"/>
-      <c r="I36" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="D37" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58"/>
-      <c r="I37" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="D38" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-    </row>
-    <row r="39" spans="1:23" ht="16.8" thickBot="1">
-      <c r="A39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="D39" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="D40" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="58"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="58"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="D42" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="58"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="D43" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:23" ht="16.8" thickBot="1">
-      <c r="D44" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="D45" s="11"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:23" ht="16.8" thickBot="1"/>
-    <row r="47" spans="1:23">
-      <c r="A47" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="A48" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="20"/>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="37" t="s">
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="19"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B61" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C61" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D61" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="17" t="s">
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="20"/>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="37" t="s">
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="19"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B62" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="17" t="s">
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="20"/>
-    </row>
-    <row r="51" spans="1:21" ht="16.8" thickBot="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="17" t="s">
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="19"/>
+    </row>
+    <row r="63" spans="1:21" ht="16.8" thickBot="1">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="25"/>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="17" t="s">
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="24"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-    </row>
-    <row r="53" spans="1:21" ht="16.8" thickBot="1">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+    </row>
+    <row r="65" spans="1:21" ht="16.8" thickBot="1">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3016,133 +4941,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="138.44140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="132.77734375" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="41"/>
+    <col min="1" max="1" width="13.77734375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="138.44140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="132.77734375" style="39" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="97.2">
+      <c r="A2" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="197.4" customHeight="1">
+      <c r="A3" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32.4">
+      <c r="A4" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="41"/>
+    </row>
+    <row r="5" spans="1:3" s="44" customFormat="1" ht="153" customHeight="1">
+      <c r="A5" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="44" customFormat="1" ht="165.6" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="81">
+      <c r="A7" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="44" customFormat="1" ht="138">
+      <c r="A8" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="48" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="97.2">
-      <c r="A2" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="197.4" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32.4">
-      <c r="A4" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="43"/>
-    </row>
-    <row r="5" spans="1:3" s="46" customFormat="1" ht="153" customHeight="1">
-      <c r="A5" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="46" customFormat="1" ht="165.6" customHeight="1">
-      <c r="A6" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="81">
-      <c r="A7" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="46" customFormat="1" ht="138">
-      <c r="A8" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="48"/>
-    </row>
-    <row r="9" spans="1:3" s="46" customFormat="1" ht="162">
-      <c r="A9" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="46" customFormat="1" ht="84.6" customHeight="1">
-      <c r="A10" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="48"/>
+      <c r="C8" s="46"/>
+    </row>
+    <row r="9" spans="1:3" s="44" customFormat="1" ht="162">
+      <c r="A9" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="44" customFormat="1" ht="84.6" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:3" ht="96.6">
-      <c r="A11" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="42"/>
+      <c r="A11" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="40"/>
     </row>
     <row r="12" spans="1:3" ht="110.4">
-      <c r="A12" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="42"/>
+      <c r="A12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3153,10 +5078,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3165,201 +5090,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="48.6">
-      <c r="A1" s="39" t="s">
-        <v>82</v>
+      <c r="A1" s="37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="48.6">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="97.2">
+      <c r="A3" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="97.2">
-      <c r="A3" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" ht="81">
-      <c r="A4" s="39" t="s">
-        <v>83</v>
+      <c r="A4" s="37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="81">
-      <c r="A5" s="39" t="s">
-        <v>84</v>
+      <c r="A5" s="37" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="129.6">
-      <c r="A6" s="39" t="s">
-        <v>85</v>
+      <c r="A6" s="37" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="81">
-      <c r="A7" s="39" t="s">
-        <v>88</v>
+      <c r="A7" s="37" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="48.6">
-      <c r="A8" s="39" t="s">
-        <v>65</v>
+      <c r="A8" s="37" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="48.6">
-      <c r="A9" s="39" t="s">
-        <v>64</v>
+      <c r="A9" s="37" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="48.6">
-      <c r="A10" s="39" t="s">
-        <v>66</v>
+      <c r="A10" s="37" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="113.4">
-      <c r="A12" s="39" t="s">
-        <v>150</v>
+      <c r="A12" s="37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="113.4">
-      <c r="A13" s="52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="53"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="53" t="s">
-        <v>104</v>
+      <c r="A13" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="113.4">
+      <c r="A14" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="113.4">
+      <c r="A15" s="50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="113.4">
+      <c r="A16" s="50" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="29" t="s">
-        <v>107</v>
-      </c>
+      <c r="A17" s="51"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="55" t="s">
-        <v>116</v>
+      <c r="A18" s="51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="55" t="s">
-        <v>122</v>
+      <c r="A20" s="27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="53" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="53" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="53" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="53" t="s">
-        <v>119</v>
+      <c r="A24" s="51" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="53" t="s">
-        <v>124</v>
+      <c r="A25" s="51" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="53" t="s">
-        <v>120</v>
+      <c r="A26" s="51" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="53" t="s">
-        <v>126</v>
+      <c r="A27" s="51" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="53" t="s">
-        <v>125</v>
+      <c r="A28" s="51" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="53" t="s">
-        <v>121</v>
+      <c r="A29" s="51" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="29" t="s">
-        <v>108</v>
+      <c r="A30" s="51" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="51" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>109</v>
+      <c r="A32" s="51" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>112</v>
+      <c r="A33" s="27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>111</v>
+      <c r="A34" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="30" t="s">
-        <v>132</v>
+      <c r="A38" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>129</v>
+      <c r="A41" s="28" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3373,7 +5313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3384,47 +5324,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="64.8">
-      <c r="A2" s="67" t="s">
-        <v>152</v>
+      <c r="A2" s="58" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="48.6">
-      <c r="A11" s="67" t="s">
-        <v>160</v>
+      <c r="A11" s="58" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="64.8">
-      <c r="A13" s="67" t="s">
-        <v>159</v>
+      <c r="A13" s="58" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3437,56 +5377,656 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K15:K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="16.8" thickBot="1"/>
+    <row r="2" spans="2:14" ht="17.399999999999999" thickTop="1" thickBot="1">
+      <c r="B2" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="I2" s="106" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="107"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="78"/>
+      <c r="I3" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="78"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="78"/>
+      <c r="I4" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="108" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="78"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="78"/>
+      <c r="I5" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="78"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="78"/>
+      <c r="I6" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="78"/>
+    </row>
+    <row r="7" spans="2:14" ht="16.8" thickBot="1">
+      <c r="B7" s="80"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="78"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="78"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.8" thickBot="1">
+      <c r="B8" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="78"/>
+      <c r="I8" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="78"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="78"/>
+      <c r="I9" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="78"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="I10" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="108" t="s">
+        <v>206</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="N10" s="78"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.8" thickBot="1">
+      <c r="B11" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="78"/>
+      <c r="I11" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="L11" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="M11" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="N11" s="88"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.8" thickTop="1">
+      <c r="B12" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="78"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="78"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="78"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.8" thickBot="1">
+      <c r="B15" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="G15" s="88"/>
+    </row>
+    <row r="16" spans="2:14" ht="16.8" thickTop="1"/>
+    <row r="17" spans="2:7" ht="16.8" thickBot="1"/>
+    <row r="18" spans="2:7" ht="17.399999999999999" thickTop="1" thickBot="1">
+      <c r="B18" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="94"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="94"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="94"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="94"/>
+    </row>
+    <row r="23" spans="2:7" ht="16.8" thickBot="1">
+      <c r="B23" s="96"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="94"/>
+    </row>
+    <row r="24" spans="2:7" ht="16.8" thickBot="1">
+      <c r="B24" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="94"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="94"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="94"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="94"/>
+    </row>
+    <row r="28" spans="2:7" ht="16.8" thickBot="1">
+      <c r="B28" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="103"/>
+      <c r="G28" s="104"/>
+    </row>
+    <row r="29" spans="2:7" ht="16.8" thickTop="1"/>
+    <row r="33" spans="2:26">
+      <c r="B33" s="105" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26">
+      <c r="B34" s="105" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" ht="81">
+      <c r="I37" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" ht="16.8" thickBot="1">
+      <c r="R42" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="W42" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26">
+      <c r="R43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="S43" s="5"/>
+      <c r="W43" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="59"/>
+    </row>
+    <row r="45" spans="2:26" ht="16.8" thickBot="1">
+      <c r="U45" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="U46" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="V46" s="5"/>
+    </row>
+    <row r="48" spans="2:26" ht="16.8" thickBot="1">
+      <c r="R48" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="W48" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23">
+      <c r="R49" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="S49" s="6"/>
+      <c r="W49" s="115" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23">
+      <c r="V50" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="W50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" ht="16.8" thickBot="1">
+      <c r="R52" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23">
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="I53" t="s">
+        <v>209</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="W53" s="119" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23">
+      <c r="R54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+    </row>
+    <row r="55" spans="2:23">
+      <c r="W55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23">
+      <c r="W56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/設計文件/權限設計.xlsx
+++ b/doc/設計文件/權限設計.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="256">
   <si>
     <t>角色代號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1288,6 +1288,58 @@
 PKG:PACKAGE
 則是Business就有,不是OptionID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update bac_role_function t set edition = 'LITE' where id_typ='FUNCTION' and pre_id ='PMS0810230';</t>
+  </si>
+  <si>
+    <t>沒有買option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買PMS_RATECODE_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買PMS_RATECODE_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update BAC_OPTION_DT set use_sta = 'N' where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_MN set use_sta = 'N' where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and use_sta = 'Y';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_MN set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_RATECODE_B';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_dt set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_RATECODE_B';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_MN set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_RATECODE_S';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_dt set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_RATECODE_S';</t>
+  </si>
+  <si>
+    <t>update bac_role_function t set edition = 'ENTERPRISE' where id_typ='FUNCTION' and (func_athena_id,func_comp_cod,func_hotel_cod,pre_id,current_id) in (select athena_id,comp_cod,hotel_cod,pro_id,func_id from BAC_OPTION_DT a where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y' and a.option_id = 'PMS_RATECODE_S');</t>
+  </si>
+  <si>
+    <t>update bac_role_function t set edition = 'BUSINESS' where id_typ='FUNCTION' and (func_athena_id,func_comp_cod,func_hotel_cod,pre_id,current_id) in (select athena_id,comp_cod,hotel_cod,pro_id,func_id from BAC_OPTION_DT a where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y' and a.option_id = 'PMS_RATECODE_B');</t>
+  </si>
+  <si>
+    <t>買PMS_SVC_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update BAC_OPTION_MN set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_SVC_ITEM';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_dt set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_SVC_ITEM';</t>
+  </si>
+  <si>
+    <t>update bac_role_function t set edition = 'BUSINESS' where id_typ='FUNCTION' and (func_athena_id,func_comp_cod,func_hotel_cod,pre_id,current_id) in (select athena_id,comp_cod,hotel_cod,pro_id,func_id from BAC_OPTION_DT a where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y' and a.option_id = 'PMS_SVC_ITEM');</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2443,6 +2495,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5433,10 +5488,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z56"/>
+  <dimension ref="B1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="J49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6023,6 +6078,86 @@
         <v>231</v>
       </c>
     </row>
+    <row r="58" spans="2:23">
+      <c r="W58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23">
+      <c r="W59" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23">
+      <c r="W60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23">
+      <c r="W61" s="121" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23">
+      <c r="W63" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23">
+      <c r="W64" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="23:23">
+      <c r="W65" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="23:23">
+      <c r="W66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="23:23">
+      <c r="W69" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="23:23">
+      <c r="W70" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="23:23">
+      <c r="W71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="23:23">
+      <c r="W72" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="23:23">
+      <c r="W74" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="23:23">
+      <c r="W75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="23:23">
+      <c r="W76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="23:23">
+      <c r="W77" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/設計文件/權限設計.xlsx
+++ b/doc/設計文件/權限設計.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="260">
   <si>
     <t>角色代號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1251,12 +1251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">select t.*, t.rowid from bac_role_function t where id_typ='FUNCTION' and (func_athena_id,func_hotel_cod,pre_id) in (select athena_id,hotel_cod,pro_id from BAC_OPTION_DT where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y') ; </t>
-  </si>
-  <si>
-    <t>select * from BAC_OPTION_DT where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y' and id_typ = 'OPTION';</t>
-  </si>
-  <si>
     <t>OptionID_RF</t>
   </si>
   <si>
@@ -1293,10 +1287,6 @@
     <t>update bac_role_function t set edition = 'LITE' where id_typ='FUNCTION' and pre_id ='PMS0810230';</t>
   </si>
   <si>
-    <t>沒有買option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>買PMS_RATECODE_B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1305,41 +1295,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update BAC_OPTION_DT set use_sta = 'N' where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y';</t>
-  </si>
-  <si>
-    <t>update BAC_OPTION_MN set use_sta = 'N' where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and use_sta = 'Y';</t>
-  </si>
-  <si>
-    <t>update BAC_OPTION_MN set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_RATECODE_B';</t>
-  </si>
-  <si>
-    <t>update BAC_OPTION_dt set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_RATECODE_B';</t>
-  </si>
-  <si>
-    <t>update BAC_OPTION_MN set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_RATECODE_S';</t>
-  </si>
-  <si>
-    <t>update BAC_OPTION_dt set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_RATECODE_S';</t>
-  </si>
-  <si>
-    <t>update bac_role_function t set edition = 'ENTERPRISE' where id_typ='FUNCTION' and (func_athena_id,func_comp_cod,func_hotel_cod,pre_id,current_id) in (select athena_id,comp_cod,hotel_cod,pro_id,func_id from BAC_OPTION_DT a where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y' and a.option_id = 'PMS_RATECODE_S');</t>
-  </si>
-  <si>
-    <t>update bac_role_function t set edition = 'BUSINESS' where id_typ='FUNCTION' and (func_athena_id,func_comp_cod,func_hotel_cod,pre_id,current_id) in (select athena_id,comp_cod,hotel_cod,pro_id,func_id from BAC_OPTION_DT a where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y' and a.option_id = 'PMS_RATECODE_B');</t>
-  </si>
-  <si>
     <t>買PMS_SVC_ITEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update BAC_OPTION_MN set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_SVC_ITEM';</t>
-  </si>
-  <si>
-    <t>update BAC_OPTION_dt set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and option_id = 'PMS_SVC_ITEM';</t>
-  </si>
-  <si>
-    <t>update bac_role_function t set edition = 'BUSINESS' where id_typ='FUNCTION' and (func_athena_id,func_comp_cod,func_hotel_cod,pre_id,current_id) in (select athena_id,comp_cod,hotel_cod,pro_id,func_id from BAC_OPTION_DT a where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS' and pro_id = 'PMS0810230' and use_sta = 'Y' and a.option_id = 'PMS_SVC_ITEM');</t>
+    <t xml:space="preserve">select t.*, t.rowid from bac_role_function t where id_typ='FUNCTION' and (func_athena_id,func_hotel_cod,pre_id) in (select athena_id,hotel_cod,pro_id from BAC_OPTION_DT where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and pro_id = 'PMS0810230' and use_sta = 'Y') ; </t>
+  </si>
+  <si>
+    <t>select * from BAC_OPTION_DT where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and pro_id = 'PMS0810230' and use_sta = 'Y' and id_typ = 'OPTION';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_MN set use_sta = 'N' where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and use_sta = 'Y';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_DT set use_sta = 'N' where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and pro_id = 'PMS0810230' and use_sta = 'Y';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_MN set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and option_id = 'PMS_RATECODE_B';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_dt set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and option_id = 'PMS_RATECODE_B';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_MN set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and option_id = 'PMS_RATECODE_S';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_dt set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and option_id = 'PMS_RATECODE_S';</t>
+  </si>
+  <si>
+    <t>update bac_role_function t set edition = 'ENTERPRISE' where id_typ='FUNCTION' and (func_athena_id,func_comp_cod,func_hotel_cod,pre_id,current_id) in (select athena_id,comp_cod,hotel_cod,pro_id,func_id from BAC_OPTION_DT a where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and pro_id = 'PMS0810230' and use_sta = 'Y' and a.option_id = 'PMS_RATECODE_S');</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_MN set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and option_id = 'PMS_SVC_ITEM';</t>
+  </si>
+  <si>
+    <t>update BAC_OPTION_dt set use_sta = 'Y'  where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and option_id = 'PMS_SVC_ITEM';</t>
+  </si>
+  <si>
+    <t>update bac_role_function t set edition = 'BUSINESS' where id_typ='FUNCTION' and (func_athena_id,func_comp_cod,func_hotel_cod,pre_id,current_id) in (select athena_id,comp_cod,hotel_cod,pro_id,func_id from BAC_OPTION_DT a where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and pro_id = 'PMS0810230' and use_sta = 'Y' and a.option_id = 'PMS_SVC_ITEM');</t>
+  </si>
+  <si>
+    <t>LITE版沒有買option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESS版沒有買option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update bac_role_function t set edition = 'BUSINESS' where id_typ='FUNCTION' and (func_athena_id,func_comp_cod,func_hotel_cod,pre_id,current_id) in (select athena_id,comp_cod,hotel_cod,pro_id,func_id from BAC_OPTION_DT a where athena_id = 1 and comp_cod = 'MIRACHU' and hotel_cod = '02' and sys_id = 'PMS0000000' and pro_id = 'PMS0810230' and use_sta = 'Y' and a.option_id = 'PMS_RATECODE_B');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update bac_role_function t set edition = 'LITE' where id_typ='PROCESS' and current_id ='PMS0810230';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update bac_role_function t set edition = 'BUSINESS' where id_typ='FUNCTION' and pre_id ='PMS0810230';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update bac_role_function t set edition = 'BUSINESS' where id_typ='PROCESS' and current_id ='PMS0810230';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5488,10 +5505,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z77"/>
+  <dimension ref="B1:Z83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="V66" sqref="V66"/>
+    <sheetView tabSelected="1" topLeftCell="P50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AD68" sqref="AD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -5853,7 +5870,7 @@
         <v>176</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -5981,7 +5998,7 @@
     </row>
     <row r="37" spans="2:26" ht="81">
       <c r="I37" s="58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="2:26" ht="16.8" thickBot="1">
@@ -5989,7 +6006,7 @@
         <v>153</v>
       </c>
       <c r="W42" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="2:26">
@@ -6006,7 +6023,7 @@
     </row>
     <row r="45" spans="2:26" ht="16.8" thickBot="1">
       <c r="U45" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="2:26">
@@ -6034,15 +6051,15 @@
     </row>
     <row r="50" spans="2:23">
       <c r="V50" s="120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="2:23" ht="16.8" thickBot="1">
       <c r="R52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="2:23">
@@ -6058,7 +6075,7 @@
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="W53" s="119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="2:23">
@@ -6070,92 +6087,122 @@
     </row>
     <row r="55" spans="2:23">
       <c r="W55" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="2:23">
       <c r="W56" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="2:23">
       <c r="W58" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="2:23">
       <c r="W59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="2:23">
       <c r="W60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="2:23">
       <c r="W61" s="121" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23">
-      <c r="W63" t="s">
-        <v>242</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23">
+      <c r="W62" s="121" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="2:23">
       <c r="W64" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="23:23">
       <c r="W65" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="23:23">
       <c r="W66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="69" spans="23:23">
-      <c r="W69" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="23:23">
+      <c r="W67" s="121" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="23:23">
+      <c r="W68" s="121" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="23:23">
       <c r="W70" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="23:23">
       <c r="W71" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="23:23">
       <c r="W72" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" spans="23:23">
-      <c r="W74" t="s">
-        <v>252</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="23:23">
+      <c r="W73" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="23:23">
       <c r="W75" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="23:23">
       <c r="W76" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="23:23">
       <c r="W77" t="s">
-        <v>255</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="23:23">
+      <c r="W78" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="23:23">
+      <c r="W80" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="23:23">
+      <c r="W81" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="23:23">
+      <c r="W82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="23:23">
+      <c r="W83" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
